--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>HealthcareService.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -524,7 +524,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -567,7 +567,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1060,7 +1060,7 @@
     <t>HealthcareService.extension.extension.value[x].low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1459,7 +1459,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1543,7 +1543,7 @@
     <t>HealthcareService.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1621,7 +1621,7 @@
     <t>A category of the service(s) that could be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1646,7 +1646,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>ActiviteSociale.discipineEquipementSociale</t>
@@ -1679,13 +1679,13 @@
     <t>A specialty that a healthcare service may provide.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1806,7 +1806,7 @@
     <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions</t>
+    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
@@ -1893,7 +1893,7 @@
     <t>Government or local programs that this service applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/program</t>
+    <t>http://hl7.org/fhir/ValueSet/program|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PERT].observation</t>
@@ -1938,7 +1938,7 @@
     <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-referral-method</t>
+    <t>http://hl7.org/fhir/ValueSet/service-referral-method|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.appointmentRequired</t>
@@ -2071,7 +2071,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3115,7 +3115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>199</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>277</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>318</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>363</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>582</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>610</v>
       </c>
@@ -23704,12 +23704,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM193">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -19867,7 +19867,7 @@
         <v>77</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
